--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -497,7 +497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>

--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -51,30 +51,6 @@
     <t>Flipkart Selling Price</t>
   </si>
   <si>
-    <t>Sales_bucket_0</t>
-  </si>
-  <si>
-    <t>Sales_bucket_1</t>
-  </si>
-  <si>
-    <t>Sales_bucket_2</t>
-  </si>
-  <si>
-    <t>Sales_bucket_3</t>
-  </si>
-  <si>
-    <t>Sales_bucket_4</t>
-  </si>
-  <si>
-    <t>Sales_bucket_5</t>
-  </si>
-  <si>
-    <t>Sales_bucket_6</t>
-  </si>
-  <si>
-    <t>Sales_bucket_7</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
@@ -84,12 +60,6 @@
     <t>Forecast</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>procurement_type</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -115,6 +85,36 @@
   </si>
   <si>
     <t>IPC Quantity Override Reason</t>
+  </si>
+  <si>
+    <t>Sales bucket-6</t>
+  </si>
+  <si>
+    <t>Sales bucket-7</t>
+  </si>
+  <si>
+    <t>Sales bucket-5</t>
+  </si>
+  <si>
+    <t>Sales bucket-4</t>
+  </si>
+  <si>
+    <t>Sales bucket-3</t>
+  </si>
+  <si>
+    <t>Sales bucket-2</t>
+  </si>
+  <si>
+    <t>Sales bucket-1</t>
+  </si>
+  <si>
+    <t>Sales bucket-0</t>
+  </si>
+  <si>
+    <t>Procurement Type</t>
+  </si>
+  <si>
+    <t>QOH</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -535,70 +535,70 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Warehouse</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>QOH</t>
+  </si>
+  <si>
+    <t>Requirement Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +141,22 @@
       <sz val="13.2"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,15 +176,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,114 +518,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="18">
+    <row r="1" spans="1:33" ht="18">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,8 @@
   <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -628,8 +629,12 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be whole number and should not vary more than +10% of Quantity" sqref="AF1:AF1048576">
+      <formula1>(AE2+0.1*AE2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -630,8 +630,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be whole number and should not vary more than +10% of Quantity" sqref="AF1:AF1048576">
-      <formula1>(AE2+0.1*AE2)</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be number and should not vary more than 10% of Quantity" sqref="AF1:AF1048576">
+      <formula1>(AE1+0.1*AE1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection pane="topRight" activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -630,8 +630,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be whole number and should not vary more than +10% of Quantity" sqref="AF1:AF1048576">
-      <formula1>(AE2+0.1*AE2)</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be number and should not vary more than 10% of Quantity" sqref="AF1:AF1048576">
+      <formula1>(AE1+0.1*AE1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF4" sqref="AF4"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -630,8 +630,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be number and should not vary more than 10% of Quantity" sqref="AF1:AF1048576">
-      <formula1>(AE1+0.1*AE1)</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be number" sqref="AF1:AF1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -630,8 +630,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be whole number and should not vary more than +10% of Quantity" sqref="AF1:AF1048576">
-      <formula1>(AE2+0.1*AE2)</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="IPC Quantity Override should be number" sqref="AF1:AF1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
